--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.483383</v>
+        <v>25.21238266666667</v>
       </c>
       <c r="H2">
-        <v>58.450149</v>
+        <v>75.637148</v>
       </c>
       <c r="I2">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873659</v>
       </c>
       <c r="J2">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873658</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.483383</v>
+        <v>25.21238266666667</v>
       </c>
       <c r="N2">
-        <v>58.450149</v>
+        <v>75.637148</v>
       </c>
       <c r="O2">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873659</v>
       </c>
       <c r="P2">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873658</v>
       </c>
       <c r="Q2">
-        <v>379.602213124689</v>
+        <v>635.6642397304338</v>
       </c>
       <c r="R2">
-        <v>3416.419918122202</v>
+        <v>5720.978157573903</v>
       </c>
       <c r="S2">
-        <v>0.2638320990497617</v>
+        <v>0.4656330795214293</v>
       </c>
       <c r="T2">
-        <v>0.2638320990497617</v>
+        <v>0.4656330795214291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.483383</v>
+        <v>25.21238266666667</v>
       </c>
       <c r="H3">
-        <v>58.450149</v>
+        <v>75.637148</v>
       </c>
       <c r="I3">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873659</v>
       </c>
       <c r="J3">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873658</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.117683</v>
       </c>
       <c r="O3">
-        <v>0.06254849086037796</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="P3">
-        <v>0.06254849086037795</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="Q3">
-        <v>46.225514653863</v>
+        <v>59.81791583200933</v>
       </c>
       <c r="R3">
-        <v>416.0296318847671</v>
+        <v>538.361242488084</v>
       </c>
       <c r="S3">
-        <v>0.03212777517916687</v>
+        <v>0.0438174725248409</v>
       </c>
       <c r="T3">
-        <v>0.03212777517916687</v>
+        <v>0.0438174725248409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.483383</v>
+        <v>25.21238266666667</v>
       </c>
       <c r="H4">
-        <v>58.450149</v>
+        <v>75.637148</v>
       </c>
       <c r="I4">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873659</v>
       </c>
       <c r="J4">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873658</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.004736</v>
+        <v>0.003727333333333333</v>
       </c>
       <c r="N4">
-        <v>0.014208</v>
+        <v>0.011182</v>
       </c>
       <c r="O4">
-        <v>0.0001248564958771345</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="P4">
-        <v>0.0001248564958771344</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="Q4">
-        <v>0.09227330188799999</v>
+        <v>0.09397495432622222</v>
       </c>
       <c r="R4">
-        <v>0.8304597169919999</v>
+        <v>0.8457745889359999</v>
       </c>
       <c r="S4">
-        <v>6.413202579345032E-05</v>
+        <v>6.883798811674684E-05</v>
       </c>
       <c r="T4">
-        <v>6.41320257934503E-05</v>
+        <v>6.883798811674682E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.483383</v>
+        <v>25.21238266666667</v>
       </c>
       <c r="H5">
-        <v>58.450149</v>
+        <v>75.637148</v>
       </c>
       <c r="I5">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873659</v>
       </c>
       <c r="J5">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873658</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.98561233333333</v>
+        <v>9.286337999999999</v>
       </c>
       <c r="N5">
-        <v>47.956837</v>
+        <v>27.859014</v>
       </c>
       <c r="O5">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="P5">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="Q5">
-        <v>311.453807579857</v>
+        <v>234.130707228008</v>
       </c>
       <c r="R5">
-        <v>2803.084268218713</v>
+        <v>2107.176365052072</v>
       </c>
       <c r="S5">
-        <v>0.2164674202883089</v>
+        <v>0.171504066774842</v>
       </c>
       <c r="T5">
-        <v>0.2164674202883089</v>
+        <v>0.171504066774842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.483383</v>
+        <v>25.21238266666667</v>
       </c>
       <c r="H6">
-        <v>58.450149</v>
+        <v>75.637148</v>
       </c>
       <c r="I6">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873659</v>
       </c>
       <c r="J6">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873658</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.05778366666666667</v>
+        <v>0.03194333333333333</v>
       </c>
       <c r="N6">
-        <v>0.173351</v>
+        <v>0.09583</v>
       </c>
       <c r="O6">
-        <v>0.001523367005686735</v>
+        <v>0.00086454629958035</v>
       </c>
       <c r="P6">
-        <v>0.001523367005686735</v>
+        <v>0.0008645462995803499</v>
       </c>
       <c r="Q6">
-        <v>1.125821308811</v>
+        <v>0.8053675436488889</v>
       </c>
       <c r="R6">
-        <v>10.132391779299</v>
+        <v>7.24830789284</v>
       </c>
       <c r="S6">
-        <v>0.000782471199558024</v>
+        <v>0.0005899431587576328</v>
       </c>
       <c r="T6">
-        <v>0.000782471199558024</v>
+        <v>0.0005899431587576326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.483383</v>
+        <v>25.21238266666667</v>
       </c>
       <c r="H7">
-        <v>58.450149</v>
+        <v>75.637148</v>
       </c>
       <c r="I7">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873659</v>
       </c>
       <c r="J7">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873658</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.02747066666666666</v>
+        <v>0.04113633333333334</v>
       </c>
       <c r="N7">
-        <v>0.08241199999999999</v>
+        <v>0.123409</v>
       </c>
       <c r="O7">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="P7">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="Q7">
-        <v>0.5352215199319998</v>
+        <v>1.037144977503556</v>
       </c>
       <c r="R7">
-        <v>4.816993679387999</v>
+        <v>9.334304797531999</v>
       </c>
       <c r="S7">
-        <v>0.0003719910268644303</v>
+        <v>0.000759723419379325</v>
       </c>
       <c r="T7">
-        <v>0.0003719910268644303</v>
+        <v>0.0007597234193793247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7.117683</v>
       </c>
       <c r="I8">
-        <v>0.06254849086037796</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="J8">
-        <v>0.06254849086037795</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.483383</v>
+        <v>25.21238266666667</v>
       </c>
       <c r="N8">
-        <v>58.450149</v>
+        <v>75.637148</v>
       </c>
       <c r="O8">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873659</v>
       </c>
       <c r="P8">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873658</v>
       </c>
       <c r="Q8">
-        <v>46.225514653863</v>
+        <v>59.81791583200933</v>
       </c>
       <c r="R8">
-        <v>416.0296318847671</v>
+        <v>538.361242488084</v>
       </c>
       <c r="S8">
-        <v>0.03212777517916687</v>
+        <v>0.0438174725248409</v>
       </c>
       <c r="T8">
-        <v>0.03212777517916687</v>
+        <v>0.0438174725248409</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7.117683</v>
       </c>
       <c r="I9">
-        <v>0.06254849086037796</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="J9">
-        <v>0.06254849086037795</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,10 +998,10 @@
         <v>7.117683</v>
       </c>
       <c r="O9">
-        <v>0.06254849086037796</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="P9">
-        <v>0.06254849086037795</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="Q9">
         <v>5.629045698721001</v>
@@ -1010,10 +1010,10 @@
         <v>50.66141128848901</v>
       </c>
       <c r="S9">
-        <v>0.003912313708910786</v>
+        <v>0.004123355884505682</v>
       </c>
       <c r="T9">
-        <v>0.003912313708910784</v>
+        <v>0.004123355884505682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>7.117683</v>
       </c>
       <c r="I10">
-        <v>0.06254849086037796</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="J10">
-        <v>0.06254849086037795</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.004736</v>
+        <v>0.003727333333333333</v>
       </c>
       <c r="N10">
-        <v>0.014208</v>
+        <v>0.011182</v>
       </c>
       <c r="O10">
-        <v>0.0001248564958771345</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="P10">
-        <v>0.0001248564958771344</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="Q10">
-        <v>0.011236448896</v>
+        <v>0.008843325700666666</v>
       </c>
       <c r="R10">
-        <v>0.101128040064</v>
+        <v>0.07958993130600001</v>
       </c>
       <c r="S10">
-        <v>7.809585391229763E-06</v>
+        <v>6.477861615998146E-06</v>
       </c>
       <c r="T10">
-        <v>7.809585391229759E-06</v>
+        <v>6.477861615998146E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>7.117683</v>
       </c>
       <c r="I11">
-        <v>0.06254849086037796</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="J11">
-        <v>0.06254849086037795</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.98561233333333</v>
+        <v>9.286337999999999</v>
       </c>
       <c r="N11">
-        <v>47.956837</v>
+        <v>27.859014</v>
       </c>
       <c r="O11">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="P11">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="Q11">
-        <v>37.92684038318567</v>
+        <v>22.032403371618</v>
       </c>
       <c r="R11">
-        <v>341.341563448671</v>
+        <v>198.291630344562</v>
       </c>
       <c r="S11">
-        <v>0.02636000940630539</v>
+        <v>0.01613904824272536</v>
       </c>
       <c r="T11">
-        <v>0.02636000940630538</v>
+        <v>0.01613904824272536</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,10 +1166,10 @@
         <v>7.117683</v>
       </c>
       <c r="I12">
-        <v>0.06254849086037796</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="J12">
-        <v>0.06254849086037795</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.05778366666666667</v>
+        <v>0.03194333333333333</v>
       </c>
       <c r="N12">
-        <v>0.173351</v>
+        <v>0.09583</v>
       </c>
       <c r="O12">
-        <v>0.001523367005686735</v>
+        <v>0.00086454629958035</v>
       </c>
       <c r="P12">
-        <v>0.001523367005686735</v>
+        <v>0.0008645462995803499</v>
       </c>
       <c r="Q12">
-        <v>0.1370952739703334</v>
+        <v>0.07578750687666666</v>
       </c>
       <c r="R12">
-        <v>1.233857465733</v>
+        <v>0.6820875618900001</v>
       </c>
       <c r="S12">
-        <v>9.52843072321981E-05</v>
+        <v>5.551542467010395E-05</v>
       </c>
       <c r="T12">
-        <v>9.528430723219807E-05</v>
+        <v>5.551542467010395E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,40 +1228,40 @@
         <v>7.117683</v>
       </c>
       <c r="I13">
-        <v>0.06254849086037796</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="J13">
-        <v>0.06254849086037795</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.02747066666666666</v>
+        <v>0.04113633333333334</v>
       </c>
       <c r="N13">
-        <v>0.08241199999999999</v>
+        <v>0.123409</v>
       </c>
       <c r="O13">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="P13">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="Q13">
-        <v>0.06517583237733332</v>
+        <v>0.09759846014966668</v>
       </c>
       <c r="R13">
-        <v>0.5865824913959999</v>
+        <v>0.8783861413470001</v>
       </c>
       <c r="S13">
-        <v>4.529867337148277E-05</v>
+        <v>7.149225757187581E-05</v>
       </c>
       <c r="T13">
-        <v>4.529867337148275E-05</v>
+        <v>7.14922575718758E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.004736</v>
+        <v>0.003727333333333333</v>
       </c>
       <c r="H14">
-        <v>0.014208</v>
+        <v>0.011182</v>
       </c>
       <c r="I14">
-        <v>0.0001248564958771345</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="J14">
-        <v>0.0001248564958771344</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.483383</v>
+        <v>25.21238266666667</v>
       </c>
       <c r="N14">
-        <v>58.450149</v>
+        <v>75.637148</v>
       </c>
       <c r="O14">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873659</v>
       </c>
       <c r="P14">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873658</v>
       </c>
       <c r="Q14">
-        <v>0.09227330188799999</v>
+        <v>0.09397495432622222</v>
       </c>
       <c r="R14">
-        <v>0.8304597169919999</v>
+        <v>0.8457745889359999</v>
       </c>
       <c r="S14">
-        <v>6.413202579345032E-05</v>
+        <v>6.883798811674684E-05</v>
       </c>
       <c r="T14">
-        <v>6.41320257934503E-05</v>
+        <v>6.883798811674682E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.004736</v>
+        <v>0.003727333333333333</v>
       </c>
       <c r="H15">
-        <v>0.014208</v>
+        <v>0.011182</v>
       </c>
       <c r="I15">
-        <v>0.0001248564958771345</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="J15">
-        <v>0.0001248564958771344</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>7.117683</v>
       </c>
       <c r="O15">
-        <v>0.06254849086037796</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="P15">
-        <v>0.06254849086037795</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="Q15">
-        <v>0.011236448896</v>
+        <v>0.008843325700666666</v>
       </c>
       <c r="R15">
-        <v>0.101128040064</v>
+        <v>0.07958993130600001</v>
       </c>
       <c r="S15">
-        <v>7.809585391229763E-06</v>
+        <v>6.477861615998146E-06</v>
       </c>
       <c r="T15">
-        <v>7.809585391229759E-06</v>
+        <v>6.477861615998146E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.004736</v>
+        <v>0.003727333333333333</v>
       </c>
       <c r="H16">
-        <v>0.014208</v>
+        <v>0.011182</v>
       </c>
       <c r="I16">
-        <v>0.0001248564958771345</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="J16">
-        <v>0.0001248564958771344</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.004736</v>
+        <v>0.003727333333333333</v>
       </c>
       <c r="N16">
-        <v>0.014208</v>
+        <v>0.011182</v>
       </c>
       <c r="O16">
-        <v>0.0001248564958771345</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="P16">
-        <v>0.0001248564958771344</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="Q16">
-        <v>2.2429696E-05</v>
+        <v>1.389301377777777E-05</v>
       </c>
       <c r="R16">
-        <v>0.0002018672639999999</v>
+        <v>0.000125037124</v>
       </c>
       <c r="S16">
-        <v>1.558914456271689E-08</v>
+        <v>1.017682981808705E-08</v>
       </c>
       <c r="T16">
-        <v>1.558914456271689E-08</v>
+        <v>1.017682981808705E-08</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.004736</v>
+        <v>0.003727333333333333</v>
       </c>
       <c r="H17">
-        <v>0.014208</v>
+        <v>0.011182</v>
       </c>
       <c r="I17">
-        <v>0.0001248564958771345</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="J17">
-        <v>0.0001248564958771344</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.98561233333333</v>
+        <v>9.286337999999999</v>
       </c>
       <c r="N17">
-        <v>47.956837</v>
+        <v>27.859014</v>
       </c>
       <c r="O17">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="P17">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="Q17">
-        <v>0.07570786001066666</v>
+        <v>0.034613277172</v>
       </c>
       <c r="R17">
-        <v>0.681370740096</v>
+        <v>0.311519494548</v>
       </c>
       <c r="S17">
-        <v>5.261867009879296E-05</v>
+        <v>2.535471690017031E-05</v>
       </c>
       <c r="T17">
-        <v>5.261867009879294E-05</v>
+        <v>2.535471690017031E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.004736</v>
+        <v>0.003727333333333333</v>
       </c>
       <c r="H18">
-        <v>0.014208</v>
+        <v>0.011182</v>
       </c>
       <c r="I18">
-        <v>0.0001248564958771345</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="J18">
-        <v>0.0001248564958771344</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1550,28 +1550,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.05778366666666667</v>
+        <v>0.03194333333333333</v>
       </c>
       <c r="N18">
-        <v>0.173351</v>
+        <v>0.09583</v>
       </c>
       <c r="O18">
-        <v>0.001523367005686735</v>
+        <v>0.00086454629958035</v>
       </c>
       <c r="P18">
-        <v>0.001523367005686735</v>
+        <v>0.0008645462995803499</v>
       </c>
       <c r="Q18">
-        <v>0.0002736634453333334</v>
+        <v>0.0001190634511111111</v>
       </c>
       <c r="R18">
-        <v>0.002462971008</v>
+        <v>0.00107157106</v>
       </c>
       <c r="S18">
-        <v>1.902022662648885E-07</v>
+        <v>8.721566816913627E-08</v>
       </c>
       <c r="T18">
-        <v>1.902022662648885E-07</v>
+        <v>8.721566816913626E-08</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.004736</v>
+        <v>0.003727333333333333</v>
       </c>
       <c r="H19">
-        <v>0.014208</v>
+        <v>0.011182</v>
       </c>
       <c r="I19">
-        <v>0.0001248564958771345</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="J19">
-        <v>0.0001248564958771344</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.02747066666666666</v>
+        <v>0.04113633333333334</v>
       </c>
       <c r="N19">
-        <v>0.08241199999999999</v>
+        <v>0.123409</v>
       </c>
       <c r="O19">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="P19">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="Q19">
-        <v>0.0001301010773333333</v>
+        <v>0.0001533288264444444</v>
       </c>
       <c r="R19">
-        <v>0.001170909696</v>
+        <v>0.001379959438</v>
       </c>
       <c r="S19">
-        <v>9.042318283379957E-08</v>
+        <v>1.123155420336527E-07</v>
       </c>
       <c r="T19">
-        <v>9.042318283379955E-08</v>
+        <v>1.123155420336527E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.98561233333333</v>
+        <v>9.286337999999999</v>
       </c>
       <c r="H20">
-        <v>47.956837</v>
+        <v>27.859014</v>
       </c>
       <c r="I20">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="J20">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.483383</v>
+        <v>25.21238266666667</v>
       </c>
       <c r="N20">
-        <v>58.450149</v>
+        <v>75.637148</v>
       </c>
       <c r="O20">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873659</v>
       </c>
       <c r="P20">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873658</v>
       </c>
       <c r="Q20">
-        <v>311.453807579857</v>
+        <v>234.130707228008</v>
       </c>
       <c r="R20">
-        <v>2803.084268218713</v>
+        <v>2107.176365052072</v>
       </c>
       <c r="S20">
-        <v>0.2164674202883089</v>
+        <v>0.171504066774842</v>
       </c>
       <c r="T20">
-        <v>0.2164674202883089</v>
+        <v>0.171504066774842</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.98561233333333</v>
+        <v>9.286337999999999</v>
       </c>
       <c r="H21">
-        <v>47.956837</v>
+        <v>27.859014</v>
       </c>
       <c r="I21">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="J21">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,22 +1742,22 @@
         <v>7.117683</v>
       </c>
       <c r="O21">
-        <v>0.06254849086037796</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="P21">
-        <v>0.06254849086037795</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="Q21">
-        <v>37.92684038318567</v>
+        <v>22.032403371618</v>
       </c>
       <c r="R21">
-        <v>341.341563448671</v>
+        <v>198.291630344562</v>
       </c>
       <c r="S21">
-        <v>0.02636000940630539</v>
+        <v>0.01613904824272536</v>
       </c>
       <c r="T21">
-        <v>0.02636000940630538</v>
+        <v>0.01613904824272536</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.98561233333333</v>
+        <v>9.286337999999999</v>
       </c>
       <c r="H22">
-        <v>47.956837</v>
+        <v>27.859014</v>
       </c>
       <c r="I22">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="J22">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.004736</v>
+        <v>0.003727333333333333</v>
       </c>
       <c r="N22">
-        <v>0.014208</v>
+        <v>0.011182</v>
       </c>
       <c r="O22">
-        <v>0.0001248564958771345</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="P22">
-        <v>0.0001248564958771344</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="Q22">
-        <v>0.07570786001066666</v>
+        <v>0.034613277172</v>
       </c>
       <c r="R22">
-        <v>0.681370740096</v>
+        <v>0.311519494548</v>
       </c>
       <c r="S22">
-        <v>5.261867009879296E-05</v>
+        <v>2.535471690017031E-05</v>
       </c>
       <c r="T22">
-        <v>5.261867009879294E-05</v>
+        <v>2.535471690017031E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.98561233333333</v>
+        <v>9.286337999999999</v>
       </c>
       <c r="H23">
-        <v>47.956837</v>
+        <v>27.859014</v>
       </c>
       <c r="I23">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="J23">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.98561233333333</v>
+        <v>9.286337999999999</v>
       </c>
       <c r="N23">
-        <v>47.956837</v>
+        <v>27.859014</v>
       </c>
       <c r="O23">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="P23">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="Q23">
-        <v>255.5398016716188</v>
+        <v>86.23607345024398</v>
       </c>
       <c r="R23">
-        <v>2299.858215044569</v>
+        <v>776.124661052196</v>
       </c>
       <c r="S23">
-        <v>0.177605925188949</v>
+        <v>0.06316914801358266</v>
       </c>
       <c r="T23">
-        <v>0.177605925188949</v>
+        <v>0.06316914801358266</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.98561233333333</v>
+        <v>9.286337999999999</v>
       </c>
       <c r="H24">
-        <v>47.956837</v>
+        <v>27.859014</v>
       </c>
       <c r="I24">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="J24">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.05778366666666667</v>
+        <v>0.03194333333333333</v>
       </c>
       <c r="N24">
-        <v>0.173351</v>
+        <v>0.09583</v>
       </c>
       <c r="O24">
-        <v>0.001523367005686735</v>
+        <v>0.00086454629958035</v>
       </c>
       <c r="P24">
-        <v>0.001523367005686735</v>
+        <v>0.0008645462995803499</v>
       </c>
       <c r="Q24">
-        <v>0.923707294531889</v>
+        <v>0.2966365901799999</v>
       </c>
       <c r="R24">
-        <v>8.313365650787</v>
+        <v>2.66972931162</v>
       </c>
       <c r="S24">
-        <v>0.0006419974014847873</v>
+        <v>0.0002172905133735755</v>
       </c>
       <c r="T24">
-        <v>0.0006419974014847872</v>
+        <v>0.0002172905133735755</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.98561233333333</v>
+        <v>9.286337999999999</v>
       </c>
       <c r="H25">
-        <v>47.956837</v>
+        <v>27.859014</v>
       </c>
       <c r="I25">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="J25">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.02747066666666666</v>
+        <v>0.04113633333333334</v>
       </c>
       <c r="N25">
-        <v>0.08241199999999999</v>
+        <v>0.123409</v>
       </c>
       <c r="O25">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="P25">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="Q25">
-        <v>0.4391354278715555</v>
+        <v>0.382005895414</v>
       </c>
       <c r="R25">
-        <v>3.952218850843999</v>
+        <v>3.438053058726</v>
       </c>
       <c r="S25">
-        <v>0.0003052090259136912</v>
+        <v>0.0002798247413640779</v>
       </c>
       <c r="T25">
-        <v>0.0003052090259136911</v>
+        <v>0.0002798247413640778</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.05778366666666667</v>
+        <v>0.03194333333333333</v>
       </c>
       <c r="H26">
-        <v>0.173351</v>
+        <v>0.09583</v>
       </c>
       <c r="I26">
-        <v>0.001523367005686735</v>
+        <v>0.00086454629958035</v>
       </c>
       <c r="J26">
-        <v>0.001523367005686735</v>
+        <v>0.0008645462995803499</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.483383</v>
+        <v>25.21238266666667</v>
       </c>
       <c r="N26">
-        <v>58.450149</v>
+        <v>75.637148</v>
       </c>
       <c r="O26">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873659</v>
       </c>
       <c r="P26">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873658</v>
       </c>
       <c r="Q26">
-        <v>1.125821308811</v>
+        <v>0.8053675436488889</v>
       </c>
       <c r="R26">
-        <v>10.132391779299</v>
+        <v>7.24830789284</v>
       </c>
       <c r="S26">
-        <v>0.000782471199558024</v>
+        <v>0.0005899431587576328</v>
       </c>
       <c r="T26">
-        <v>0.000782471199558024</v>
+        <v>0.0005899431587576326</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2090,16 +2090,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.05778366666666667</v>
+        <v>0.03194333333333333</v>
       </c>
       <c r="H27">
-        <v>0.173351</v>
+        <v>0.09583</v>
       </c>
       <c r="I27">
-        <v>0.001523367005686735</v>
+        <v>0.00086454629958035</v>
       </c>
       <c r="J27">
-        <v>0.001523367005686735</v>
+        <v>0.0008645462995803499</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,22 +2114,22 @@
         <v>7.117683</v>
       </c>
       <c r="O27">
-        <v>0.06254849086037796</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="P27">
-        <v>0.06254849086037795</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="Q27">
-        <v>0.1370952739703334</v>
+        <v>0.07578750687666666</v>
       </c>
       <c r="R27">
-        <v>1.233857465733</v>
+        <v>0.6820875618900001</v>
       </c>
       <c r="S27">
-        <v>9.52843072321981E-05</v>
+        <v>5.551542467010395E-05</v>
       </c>
       <c r="T27">
-        <v>9.528430723219807E-05</v>
+        <v>5.551542467010395E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2152,46 +2152,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.05778366666666667</v>
+        <v>0.03194333333333333</v>
       </c>
       <c r="H28">
-        <v>0.173351</v>
+        <v>0.09583</v>
       </c>
       <c r="I28">
-        <v>0.001523367005686735</v>
+        <v>0.00086454629958035</v>
       </c>
       <c r="J28">
-        <v>0.001523367005686735</v>
+        <v>0.0008645462995803499</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.004736</v>
+        <v>0.003727333333333333</v>
       </c>
       <c r="N28">
-        <v>0.014208</v>
+        <v>0.011182</v>
       </c>
       <c r="O28">
-        <v>0.0001248564958771345</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="P28">
-        <v>0.0001248564958771344</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="Q28">
-        <v>0.0002736634453333334</v>
+        <v>0.0001190634511111111</v>
       </c>
       <c r="R28">
-        <v>0.002462971008</v>
+        <v>0.00107157106</v>
       </c>
       <c r="S28">
-        <v>1.902022662648885E-07</v>
+        <v>8.721566816913627E-08</v>
       </c>
       <c r="T28">
-        <v>1.902022662648885E-07</v>
+        <v>8.721566816913626E-08</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2214,16 +2214,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.05778366666666667</v>
+        <v>0.03194333333333333</v>
       </c>
       <c r="H29">
-        <v>0.173351</v>
+        <v>0.09583</v>
       </c>
       <c r="I29">
-        <v>0.001523367005686735</v>
+        <v>0.00086454629958035</v>
       </c>
       <c r="J29">
-        <v>0.001523367005686735</v>
+        <v>0.0008645462995803499</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2232,28 +2232,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.98561233333333</v>
+        <v>9.286337999999999</v>
       </c>
       <c r="N29">
-        <v>47.956837</v>
+        <v>27.859014</v>
       </c>
       <c r="O29">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="P29">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="Q29">
-        <v>0.923707294531889</v>
+        <v>0.2966365901799999</v>
       </c>
       <c r="R29">
-        <v>8.313365650787</v>
+        <v>2.66972931162</v>
       </c>
       <c r="S29">
-        <v>0.0006419974014847873</v>
+        <v>0.0002172905133735755</v>
       </c>
       <c r="T29">
-        <v>0.0006419974014847872</v>
+        <v>0.0002172905133735755</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2276,16 +2276,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.05778366666666667</v>
+        <v>0.03194333333333333</v>
       </c>
       <c r="H30">
-        <v>0.173351</v>
+        <v>0.09583</v>
       </c>
       <c r="I30">
-        <v>0.001523367005686735</v>
+        <v>0.00086454629958035</v>
       </c>
       <c r="J30">
-        <v>0.001523367005686735</v>
+        <v>0.0008645462995803499</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2294,28 +2294,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.05778366666666667</v>
+        <v>0.03194333333333333</v>
       </c>
       <c r="N30">
-        <v>0.173351</v>
+        <v>0.09583</v>
       </c>
       <c r="O30">
-        <v>0.001523367005686735</v>
+        <v>0.00086454629958035</v>
       </c>
       <c r="P30">
-        <v>0.001523367005686735</v>
+        <v>0.0008645462995803499</v>
       </c>
       <c r="Q30">
-        <v>0.003338952133444445</v>
+        <v>0.001020376544444444</v>
       </c>
       <c r="R30">
-        <v>0.030050569201</v>
+        <v>0.009183388900000001</v>
       </c>
       <c r="S30">
-        <v>2.32064703401497E-06</v>
+        <v>7.474403041180763E-07</v>
       </c>
       <c r="T30">
-        <v>2.32064703401497E-06</v>
+        <v>7.474403041180761E-07</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2338,46 +2338,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.05778366666666667</v>
+        <v>0.03194333333333333</v>
       </c>
       <c r="H31">
-        <v>0.173351</v>
+        <v>0.09583</v>
       </c>
       <c r="I31">
-        <v>0.001523367005686735</v>
+        <v>0.00086454629958035</v>
       </c>
       <c r="J31">
-        <v>0.001523367005686735</v>
+        <v>0.0008645462995803499</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.02747066666666666</v>
+        <v>0.04113633333333334</v>
       </c>
       <c r="N31">
-        <v>0.08241199999999999</v>
+        <v>0.123409</v>
       </c>
       <c r="O31">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="P31">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="Q31">
-        <v>0.001587355845777778</v>
+        <v>0.001314031607777778</v>
       </c>
       <c r="R31">
-        <v>0.014286202612</v>
+        <v>0.01182628447</v>
       </c>
       <c r="S31">
-        <v>1.103248111445804E-06</v>
+        <v>9.625468067505761E-07</v>
       </c>
       <c r="T31">
-        <v>1.103248111445804E-06</v>
+        <v>9.625468067505756E-07</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2394,22 +2394,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.02747066666666666</v>
+        <v>0.04113633333333334</v>
       </c>
       <c r="H32">
-        <v>0.08241199999999999</v>
+        <v>0.123409</v>
       </c>
       <c r="I32">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="J32">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2418,28 +2418,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.483383</v>
+        <v>25.21238266666667</v>
       </c>
       <c r="N32">
-        <v>58.450149</v>
+        <v>75.637148</v>
       </c>
       <c r="O32">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873659</v>
       </c>
       <c r="P32">
-        <v>0.5136458887694534</v>
+        <v>0.6823731233873658</v>
       </c>
       <c r="Q32">
-        <v>0.5352215199319998</v>
+        <v>1.037144977503556</v>
       </c>
       <c r="R32">
-        <v>4.816993679387999</v>
+        <v>9.334304797531999</v>
       </c>
       <c r="S32">
-        <v>0.0003719910268644303</v>
+        <v>0.000759723419379325</v>
       </c>
       <c r="T32">
-        <v>0.0003719910268644303</v>
+        <v>0.0007597234193793247</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2456,22 +2456,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.02747066666666666</v>
+        <v>0.04113633333333334</v>
       </c>
       <c r="H33">
-        <v>0.08241199999999999</v>
+        <v>0.123409</v>
       </c>
       <c r="I33">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="J33">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,22 +2486,22 @@
         <v>7.117683</v>
       </c>
       <c r="O33">
-        <v>0.06254849086037796</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="P33">
-        <v>0.06254849086037795</v>
+        <v>0.06421336219592992</v>
       </c>
       <c r="Q33">
-        <v>0.06517583237733332</v>
+        <v>0.09759846014966668</v>
       </c>
       <c r="R33">
-        <v>0.5865824913959999</v>
+        <v>0.8783861413470001</v>
       </c>
       <c r="S33">
-        <v>4.529867337148277E-05</v>
+        <v>7.149225757187581E-05</v>
       </c>
       <c r="T33">
-        <v>4.529867337148275E-05</v>
+        <v>7.14922575718758E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2518,52 +2518,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.02747066666666666</v>
+        <v>0.04113633333333334</v>
       </c>
       <c r="H34">
-        <v>0.08241199999999999</v>
+        <v>0.123409</v>
       </c>
       <c r="I34">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="J34">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.004736</v>
+        <v>0.003727333333333333</v>
       </c>
       <c r="N34">
-        <v>0.014208</v>
+        <v>0.011182</v>
       </c>
       <c r="O34">
-        <v>0.0001248564958771345</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="P34">
-        <v>0.0001248564958771344</v>
+        <v>0.0001008802746729362</v>
       </c>
       <c r="Q34">
-        <v>0.0001301010773333333</v>
+        <v>0.0001533288264444444</v>
       </c>
       <c r="R34">
-        <v>0.001170909696</v>
+        <v>0.001379959438</v>
       </c>
       <c r="S34">
-        <v>9.042318283379957E-08</v>
+        <v>1.123155420336527E-07</v>
       </c>
       <c r="T34">
-        <v>9.042318283379955E-08</v>
+        <v>1.123155420336527E-07</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2580,22 +2580,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.02747066666666666</v>
+        <v>0.04113633333333334</v>
       </c>
       <c r="H35">
-        <v>0.08241199999999999</v>
+        <v>0.123409</v>
       </c>
       <c r="I35">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="J35">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2604,28 +2604,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.98561233333333</v>
+        <v>9.286337999999999</v>
       </c>
       <c r="N35">
-        <v>47.956837</v>
+        <v>27.859014</v>
       </c>
       <c r="O35">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="P35">
-        <v>0.4214331799810606</v>
+        <v>0.2513347330027879</v>
       </c>
       <c r="Q35">
-        <v>0.4391354278715555</v>
+        <v>0.382005895414</v>
       </c>
       <c r="R35">
-        <v>3.952218850843999</v>
+        <v>3.438053058726</v>
       </c>
       <c r="S35">
-        <v>0.0003052090259136912</v>
+        <v>0.0002798247413640779</v>
       </c>
       <c r="T35">
-        <v>0.0003052090259136911</v>
+        <v>0.0002798247413640778</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2642,22 +2642,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.02747066666666666</v>
+        <v>0.04113633333333334</v>
       </c>
       <c r="H36">
-        <v>0.08241199999999999</v>
+        <v>0.123409</v>
       </c>
       <c r="I36">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="J36">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2666,28 +2666,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.05778366666666667</v>
+        <v>0.03194333333333333</v>
       </c>
       <c r="N36">
-        <v>0.173351</v>
+        <v>0.09583</v>
       </c>
       <c r="O36">
-        <v>0.001523367005686735</v>
+        <v>0.00086454629958035</v>
       </c>
       <c r="P36">
-        <v>0.001523367005686735</v>
+        <v>0.0008645462995803499</v>
       </c>
       <c r="Q36">
-        <v>0.001587355845777778</v>
+        <v>0.001314031607777778</v>
       </c>
       <c r="R36">
-        <v>0.014286202612</v>
+        <v>0.01182628447</v>
       </c>
       <c r="S36">
-        <v>1.103248111445804E-06</v>
+        <v>9.625468067505761E-07</v>
       </c>
       <c r="T36">
-        <v>1.103248111445804E-06</v>
+        <v>9.625468067505756E-07</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2704,52 +2704,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.02747066666666666</v>
+        <v>0.04113633333333334</v>
       </c>
       <c r="H37">
-        <v>0.08241199999999999</v>
+        <v>0.123409</v>
       </c>
       <c r="I37">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="J37">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.02747066666666666</v>
+        <v>0.04113633333333334</v>
       </c>
       <c r="N37">
-        <v>0.08241199999999999</v>
+        <v>0.123409</v>
       </c>
       <c r="O37">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="P37">
-        <v>0.000724216887544088</v>
+        <v>0.001113354839663064</v>
       </c>
       <c r="Q37">
-        <v>0.0007546375271111108</v>
+        <v>0.001692197920111112</v>
       </c>
       <c r="R37">
-        <v>0.006791737743999998</v>
+        <v>0.015229781281</v>
       </c>
       <c r="S37">
-        <v>5.244901002040462E-07</v>
+        <v>1.239558999001167E-06</v>
       </c>
       <c r="T37">
-        <v>5.244901002040462E-07</v>
+        <v>1.239558999001167E-06</v>
       </c>
     </row>
   </sheetData>
